--- a/end_to_end_testing.xlsx
+++ b/end_to_end_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University_Study\Final Year Project\FYP-2\Project\TourToPK-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{763F1E23-19F8-43DE-97B2-72E7D5E0FA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E0D062-CA5F-403D-94B2-BC33E35F2995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FC72E4DC-F9F4-4E7B-B984-AE772E810068}"/>
   </bookViews>
@@ -35,9 +35,214 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+  <si>
+    <t>Testcase ID</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Steps to perform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status </t>
+  </si>
+  <si>
+    <t>tc_tourtpk_01</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_02</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_03</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_04</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_05</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_06</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_07</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_08</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_09</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_10</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_11</t>
+  </si>
+  <si>
+    <t>tc_tourtpk_12</t>
+  </si>
+  <si>
+    <t>testcase  Description</t>
+  </si>
+  <si>
+    <t>User Registration
+ and Authentication:</t>
+  </si>
+  <si>
+    <t>A new user registers 
+on the platform, verifies their email, logs in, and logs out.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1. go to signup page
+2. Enter details with valid data
+3. verify email through code 
+you receive on you emil
+4. logo login page
+5. Enter valid data
+6. log out</t>
+  </si>
+  <si>
+    <t>Verify user able to
+ update profile</t>
+  </si>
+  <si>
+    <t>Verify user able to add places in liked section</t>
+  </si>
+  <si>
+    <t>1. go to login page
+2. Enter detail with valid data
+3. go to profile section
+4. update Profile 
+information
+5. log out</t>
+  </si>
+  <si>
+    <t>Verify user Profile
+management</t>
+  </si>
+  <si>
+    <t>1. go to login page
+2. Enter detail with valid data
+3. go to places section search for specific place
+4. click on like button
+5. remove place from liked section</t>
+  </si>
+  <si>
+    <t>1. go to login page
+2. enter valid data
+3. go to hotel section search for specific hotel
+4. select hotel and proseed to booking
+5. Enter personal details and payment details
+6. comfim booking
+7. receive conformation booking</t>
+  </si>
+  <si>
+    <t>User Preference</t>
+  </si>
+  <si>
+    <t>verify user able to give place preference</t>
+  </si>
+  <si>
+    <t>liked places</t>
+  </si>
+  <si>
+    <t>hotel booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rating and review </t>
+  </si>
+  <si>
+    <t>verify user able to give rating and review to places, hotel and packages</t>
+  </si>
+  <si>
+    <t>A user searches for an hotel, books it, and receives a booking confirmation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search and filter </t>
+  </si>
+  <si>
+    <t>user able to give apply
+filter and search for 
+ to places, hotel,  packages and  racommended plans</t>
+  </si>
+  <si>
+    <t>1. go to login page
+2. enter valid data
+3. go to places, hotel, packages section search for specific place, hotel and package
+4. select place,hotel and package to give rating and review
+5. give rating and review respectively</t>
+  </si>
+  <si>
+    <t>1. go to login page
+2. enter valid data
+3. go to places, hotel, packages section search for specific place, hotel , package and racommended plans
+4. apply all features respectively</t>
+  </si>
+  <si>
+    <t>cutom tour plan</t>
+  </si>
+  <si>
+    <t>1. go to login page
+2. enter valid  data
+3. go to place section
+4. click on user preference 
+button
+5.. enter place inforamtion 
+6.click on submit button 
+7.Verify that the submission is successful and appropriate notifications or actions are triggered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user generates a plan and exprt it in PDF format.
+   </t>
+  </si>
+  <si>
+    <t>1. go to login pagex
+2. ente valid data
+3. go to custom tour plans
+4. complete each step of plan
+5. submit and generate PDF
+6. verify the plan details also receive an email.</t>
+  </si>
+  <si>
+    <t>An content manager creates, edits, view, and deletes a details of places, recommended plan. Able to view and delete preference</t>
+  </si>
+  <si>
+    <t>content manger
+ dashboard</t>
+  </si>
+  <si>
+    <t>admin dashboard</t>
+  </si>
+  <si>
+    <t>hotel manager 
+dashboard</t>
+  </si>
+  <si>
+    <t>tour operator 
+dashboard</t>
+  </si>
+  <si>
+    <t>admin  view, and deletes a details of places, recommended plan, hotels, and packages. Able to view and delete users</t>
+  </si>
+  <si>
+    <t>hotel manager creates, edits, view, and deletes a details of hotels. Able to view and delete booking</t>
+  </si>
+  <si>
+    <t>tour operator creates, edits, view, and deletes a details of packages .</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +250,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +283,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +625,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97996BF4-7082-4C7C-9347-F9A50C3056D2}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E33" xr:uid="{36F69F0B-5464-44D3-8BCF-C3CA9F638C67}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/end_to_end_testing.xlsx
+++ b/end_to_end_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University_Study\Final Year Project\FYP-2\Project\TourToPK-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E0D062-CA5F-403D-94B2-BC33E35F2995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056A2EF-5D82-40AB-867F-1071A1B18499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FC72E4DC-F9F4-4E7B-B984-AE772E810068}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -229,13 +229,50 @@
 dashboard</t>
   </si>
   <si>
-    <t>admin  view, and deletes a details of places, recommended plan, hotels, and packages. Able to view and delete users</t>
-  </si>
-  <si>
     <t>hotel manager creates, edits, view, and deletes a details of hotels. Able to view and delete booking</t>
   </si>
   <si>
     <t>tour operator creates, edits, view, and deletes a details of packages .</t>
+  </si>
+  <si>
+    <t>1. go to the login page
+2. enter the valid data to log in
+3. able to create a new place
+4. able to view and delete place
+5. able to create a new plan
+6. able to view and delete plan
+7. able to view and delete preference
+8. logout.</t>
+  </si>
+  <si>
+    <t>admin  view, and deletes a details of places, recommended plan, hotels, and packages. Able to view and delete users and partner</t>
+  </si>
+  <si>
+    <t>1. go to the login page
+2. enter the valid data to log in
+3. able to view and delete place
+4. able to view and delete packages
+5. able to view and delete plan
+6. able to view and delete hotels
+7. able to view and delete users 
+8. logout.</t>
+  </si>
+  <si>
+    <t>1. go to the login page
+2. enter the valid data to log in
+3. able to create a new room
+4.able to update its profile
+5. able to view and delete hotels
+6. able to view and delete booking 
+7. logout.</t>
+  </si>
+  <si>
+    <t>1. go to the login page
+2. enter the valid data to log in
+3. able to create a new packages
+4. able to update its profile
+5. able to view and delete packages
+6. logout.</t>
   </si>
 </sst>
 </file>
@@ -627,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97996BF4-7082-4C7C-9347-F9A50C3056D2}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -804,11 +841,14 @@
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -816,13 +856,16 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -830,13 +873,16 @@
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -844,7 +890,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
